--- a/ACV_EXAMPLE/Notebook-ACV/MODEL.xlsx
+++ b/ACV_EXAMPLE/Notebook-ACV/MODEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uclouvain-my.sharepoint.com/personal/david_bol_uclouvain_be/Documents/courses/EPL1804/exercises/ACV drone/ACV Python/Notebook-ACV_2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ismae\Desktop\UCLouvain\Bac 3\Q2\Projet 4\ProjetChimie\ACV_EXAMPLE\Notebook-ACV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="11_AD4D9D64A577C15A4A5418DF30DA42B65ADEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45762A4E-E7AB-48FE-91A5-55634691672B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCE8ABE-8BD6-4975-A507-01518A72409D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>Batterie</t>
   </si>
@@ -176,6 +176,63 @@
   </si>
   <si>
     <t>Collecte en magasin</t>
+  </si>
+  <si>
+    <t>Fabrication de la gaine en inox</t>
+  </si>
+  <si>
+    <t>Fabrication de la poudre d'alumine</t>
+  </si>
+  <si>
+    <t>Fabrication du fil en kanthal(négligeable)</t>
+  </si>
+  <si>
+    <t>Recyclage de la gaine</t>
+  </si>
+  <si>
+    <t>Fusion dans un four à arcs électriques</t>
+  </si>
+  <si>
+    <t>kJ/kg</t>
+  </si>
+  <si>
+    <t>Affinage avec de la chaux</t>
+  </si>
+  <si>
+    <t>Affinage avec de l'O2</t>
+  </si>
+  <si>
+    <t>Extraction des minerais</t>
+  </si>
+  <si>
+    <t>Transport en camion</t>
+  </si>
+  <si>
+    <t>Transport en bateau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal working (inox) </t>
+  </si>
+  <si>
+    <t>Metal working (kanthal)</t>
+  </si>
+  <si>
+    <t>Assemblage</t>
+  </si>
+  <si>
+    <t>Utilisation de l'électricité(230V)</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>Fabrication polymère(négligeable)</t>
+  </si>
+  <si>
+    <t>Processus de tri magnétique</t>
+  </si>
+  <si>
+    <t>kJkg</t>
   </si>
 </sst>
 </file>
@@ -505,19 +562,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="405" x14ac:dyDescent="0.35">
       <c r="A1"/>
       <c r="B1"/>
       <c r="C1" s="1" t="s">
@@ -586,8 +643,38 @@
       <c r="X1" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>6</v>
       </c>
@@ -654,8 +741,38 @@
       <c r="X2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -665,8 +782,9 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="AH3" s="1"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -677,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -688,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -702,7 +820,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -719,7 +837,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -736,7 +854,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -752,7 +870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -763,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -775,7 +893,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -787,7 +905,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -799,7 +917,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -810,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -821,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -832,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -843,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -854,7 +972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -865,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -874,6 +992,70 @@
       </c>
       <c r="X20">
         <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
